--- a/flashlight/cie1931.xlsx
+++ b/flashlight/cie1931.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crypter\Documents\Arduino\Chernobyl\flashlight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E541C03-3C9F-4E9E-AC61-19B1320253A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52C3A5-6668-49D1-8813-8BCE7CC9FE58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F0347AC-4DD4-4027-BA1D-B0C87A5CC499}"/>
   </bookViews>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1B577B-D353-4845-B59E-C804BE41AF1B}">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="G258" sqref="G258"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">IF(B2&lt;=0.8, B2/9.023,  POWER((B2+0.16)/1.16, 3))</f>
+        <f t="shared" ref="C2:C65" si="0">IF(B2&lt;=0.08, B2/9.023,  POWER((B2+0.16)/1.16, 3))</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -474,7 +474,7 @@
         <v>3.9215686274509803E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f>IF(B3&lt;=0.08, B3/9.023,  POWER((B3+0.16)/1.16, 3))</f>
         <v>4.3461915410074038E-4</v>
       </c>
       <c r="D3">
@@ -593,7 +593,7 @@
         <v>3.1372549019607843E-2</v>
       </c>
       <c r="C10">
-        <f>IF(B10&lt;=0.8, B10/9.023,  POWER((B10+0.16)/1.16, 3))</f>
+        <f t="shared" si="0"/>
         <v>3.4769532328059231E-3</v>
       </c>
       <c r="D10">
@@ -815,7 +815,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>9.1270022361155476E-3</v>
+        <v>9.1194976610405997E-3</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>9.5616213902162892E-3</v>
+        <v>9.56939369376625E-3</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>9.9962405443170289E-3</v>
+        <v>1.0033848218256931E-2</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>1.0430859698417769E-2</v>
+        <v>1.0513093057629928E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1.086547885251851E-2</v>
+        <v>1.1007360035002502E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>1.130009800661925E-2</v>
+        <v>1.151688097349194E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -917,11 +917,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>1.173471716071999E-2</v>
+        <v>1.2041887696215517E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>1.2169336314820731E-2</v>
+        <v>1.2582612026290513E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>1.2603955468921471E-2</v>
+        <v>1.3139285786834213E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>1.3038574623022211E-2</v>
+        <v>1.3712140800963878E-2</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
@@ -985,7 +985,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>1.3473193777122952E-2</v>
+        <v>1.4301408891796794E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>1.3907812931223692E-2</v>
+        <v>1.4907321882450246E-2</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>1.4342432085324434E-2</v>
+        <v>1.5530111596041497E-2</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -1036,11 +1036,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>1.4777051239425174E-2</v>
+        <v>1.6170009855687829E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,11 +1053,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>1.5211670393525915E-2</v>
+        <v>1.6827248484506525E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1070,11 +1070,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>1.5646289547626653E-2</v>
+        <v>1.7502059305614853E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1.6080908701727396E-2</v>
+        <v>1.8194674142130118E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>1.6515527855828136E-2</v>
+        <v>1.8905324817169559E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -1121,11 +1121,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>1.6950147009928876E-2</v>
+        <v>1.9634243153850487E-2</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,11 +1138,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>1.7384766164029616E-2</v>
+        <v>2.0381660975290147E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,11 +1155,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>1.7819385318130359E-2</v>
+        <v>2.1147810104605834E-2</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>1.8254004472231095E-2</v>
+        <v>2.1932922364914828E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>1.8688623626331839E-2</v>
+        <v>2.2737229579334401E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>1.9123242780432578E-2</v>
+        <v>2.3560963570981832E-2</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>1.9557861934533318E-2</v>
+        <v>2.4404356162974417E-2</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>1.9992481088634058E-2</v>
+        <v>2.5267639178429398E-2</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>2.0427100242734801E-2</v>
+        <v>2.6151044440464091E-2</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,11 +1274,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>2.0861719396835537E-2</v>
+        <v>2.7054803772195733E-2</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,11 +1291,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2.1296338550936281E-2</v>
+        <v>2.7979148996741626E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>2.173095770503702E-2</v>
+        <v>2.892431193721904E-2</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,11 +1325,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>2.216557685913776E-2</v>
+        <v>2.9890524416745258E-2</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>2.26001960132385E-2</v>
+        <v>3.0878018258437556E-2</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,11 +1359,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>2.3034815167339243E-2</v>
+        <v>3.188702528541322E-2</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,11 +1376,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>2.346943432143998E-2</v>
+        <v>3.2917777320789508E-2</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>2.3904053475540723E-2</v>
+        <v>3.3970506187683727E-2</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>2.4338672629641463E-2</v>
+        <v>3.5045443709213114E-2</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>2.4773291783742202E-2</v>
+        <v>3.614282170849497E-2</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>2.5207910937842942E-2</v>
+        <v>3.7262872008646572E-2</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,11 +1461,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>2.5642530091943685E-2</v>
+        <v>3.8405826432785201E-2</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>2.6077149246044422E-2</v>
+        <v>3.9571916804028121E-2</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>2.6511768400145165E-2</v>
+        <v>4.0761374945492639E-2</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>2.6946387554245905E-2</v>
+        <v>4.1974432680295999E-2</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,11 +1529,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>2.7381006708346645E-2</v>
+        <v>4.3211321831555502E-2</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,12 +1545,12 @@
         <v>0.25098039215686274</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C129" si="3">IF(B66&lt;=0.8, B66/9.023,  POWER((B66+0.16)/1.16, 3))</f>
-        <v>2.7815625862447384E-2</v>
+        <f t="shared" ref="C66:C129" si="3">IF(B66&lt;=0.08, B66/9.023,  POWER((B66+0.16)/1.16, 3))</f>
+        <v>4.4472274222388405E-2</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,11 +1563,11 @@
       </c>
       <c r="C67">
         <f t="shared" si="3"/>
-        <v>2.8250245016548124E-2</v>
+        <v>4.5757521675911988E-2</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" si="4">_xlfn.CEILING.MATH( ((C67*$E$2)*($G$2-$F$2)/$E$2+$F$2) )</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>2.8684864170648867E-2</v>
+        <v>4.7067296015243544E-2</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>2.9119483324749607E-2</v>
+        <v>4.840182906350033E-2</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,11 +1614,11 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>2.9554102478850347E-2</v>
+        <v>4.9761352643799647E-2</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,11 +1631,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>2.9988721632951083E-2</v>
+        <v>5.1146098579258753E-2</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>3.042334078705183E-2</v>
+        <v>5.2556298692994996E-2</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>3.085795994115257E-2</v>
+        <v>5.399218480812553E-2</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,11 +1682,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>3.1292579095253306E-2</v>
+        <v>5.5453988747767705E-2</v>
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>3.1727198249354049E-2</v>
+        <v>5.6941942335038777E-2</v>
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,11 +1716,11 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>3.2161817403454793E-2</v>
+        <v>5.8456277393056047E-2</v>
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,11 +1733,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>3.2596436557555529E-2</v>
+        <v>5.9997225744936766E-2</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>3.3031055711656272E-2</v>
+        <v>6.1565019213798242E-2</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,11 +1767,11 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>3.3465674865757009E-2</v>
+        <v>6.3159889622757731E-2</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>3.3900294019857752E-2</v>
+        <v>6.4782068794932549E-2</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>3.4334913173958495E-2</v>
+        <v>6.6431788553439911E-2</v>
       </c>
       <c r="D81">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,11 +1818,11 @@
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>3.4769532328059231E-2</v>
+        <v>6.8109280721397117E-2</v>
       </c>
       <c r="D82">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,11 +1835,11 @@
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>3.5204151482159968E-2</v>
+        <v>6.981477712192144E-2</v>
       </c>
       <c r="D83">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>3.5638770636260718E-2</v>
+        <v>7.1548509578130193E-2</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
-        <v>3.6073389790361454E-2</v>
+        <v>7.3310709913140606E-2</v>
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,11 +1886,11 @@
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>3.6508008944462191E-2</v>
+        <v>7.5101609950069995E-2</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,11 +1903,11 @@
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>3.6942628098562934E-2</v>
+        <v>7.6921441512035615E-2</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>3.7377247252663677E-2</v>
+        <v>7.8770436422154824E-2</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,11 +1937,11 @@
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>3.7811866406764413E-2</v>
+        <v>8.0648826503544754E-2</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1954,11 +1954,11 @@
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>3.8246485560865157E-2</v>
+        <v>8.2556843579322761E-2</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>3.8681104714965893E-2</v>
+        <v>8.4494719472606117E-2</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>3.9115723869066636E-2</v>
+        <v>8.6462686006512093E-2</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,11 +2005,11 @@
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>3.9550343023167379E-2</v>
+        <v>8.8460975004157977E-2</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,11 +2022,11 @@
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>3.9984962177268116E-2</v>
+        <v>9.0489818288661039E-2</v>
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,11 +2039,11 @@
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>4.0419581331368852E-2</v>
+        <v>9.2549447683138553E-2</v>
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,11 +2056,11 @@
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>4.0854200485469602E-2</v>
+        <v>9.46400950107079E-2</v>
       </c>
       <c r="D96">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2073,11 +2073,11 @@
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>4.1288819639570339E-2</v>
+        <v>9.676199209448616E-2</v>
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,11 +2090,11 @@
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>4.1723438793671075E-2</v>
+        <v>9.8915370757590743E-2</v>
       </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,11 +2107,11 @@
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>4.2158057947771818E-2</v>
+        <v>0.10110046282313888</v>
       </c>
       <c r="D99">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,11 +2124,11 @@
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>4.2592677101872561E-2</v>
+        <v>0.10331750011424787</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>4.3027296255973298E-2</v>
+        <v>0.10556671445403495</v>
       </c>
       <c r="D101">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,11 +2158,11 @@
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
-        <v>4.3461915410074041E-2</v>
+        <v>0.10784833766561748</v>
       </c>
       <c r="D102">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2175,11 +2175,11 @@
       </c>
       <c r="C103">
         <f t="shared" si="3"/>
-        <v>4.3896534564174777E-2</v>
+        <v>0.11016260157211266</v>
       </c>
       <c r="D103">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2192,11 +2192,11 @@
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
-        <v>4.4331153718275521E-2</v>
+        <v>0.11250973799663788</v>
       </c>
       <c r="D104">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
-        <v>4.4765772872376264E-2</v>
+        <v>0.11488997876231027</v>
       </c>
       <c r="D105">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,11 +2226,11 @@
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
-        <v>4.5200392026477E-2</v>
+        <v>0.11730355569224715</v>
       </c>
       <c r="D106">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>4.5635011180577736E-2</v>
+        <v>0.11975070060956583</v>
       </c>
       <c r="D107">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2260,11 +2260,11 @@
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
-        <v>4.6069630334678487E-2</v>
+        <v>0.12223164533738358</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,11 +2277,11 @@
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
-        <v>4.6504249488779223E-2</v>
+        <v>0.12474662169881769</v>
       </c>
       <c r="D109">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,11 +2294,11 @@
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>4.6938868642879959E-2</v>
+        <v>0.12729586151698541</v>
       </c>
       <c r="D110">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
-        <v>4.7373487796980703E-2</v>
+        <v>0.12987959661500403</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
-        <v>4.7808106951081446E-2</v>
+        <v>0.13249805881599089</v>
       </c>
       <c r="D112">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,11 +2345,11 @@
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
-        <v>4.8242726105182182E-2</v>
+        <v>0.1351514799430632</v>
       </c>
       <c r="D113">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
-        <v>4.8677345259282925E-2</v>
+        <v>0.13784009181933812</v>
       </c>
       <c r="D114">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,11 +2379,11 @@
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
-        <v>4.9111964413383662E-2</v>
+        <v>0.14056412626793316</v>
       </c>
       <c r="D115">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2396,11 +2396,11 @@
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
-        <v>4.9546583567484405E-2</v>
+        <v>0.1433238151119654</v>
       </c>
       <c r="D116">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,11 +2413,11 @@
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
-        <v>4.9981202721585148E-2</v>
+        <v>0.14611939017455228</v>
       </c>
       <c r="D117">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,11 +2430,11 @@
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
-        <v>5.0415821875685884E-2</v>
+        <v>0.14895108327881093</v>
       </c>
       <c r="D118">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,11 +2447,11 @@
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
-        <v>5.0850441029786621E-2</v>
+        <v>0.15181912624785879</v>
       </c>
       <c r="D119">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
-        <v>5.1285060183887371E-2</v>
+        <v>0.15472375090481305</v>
       </c>
       <c r="D120">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,11 +2481,11 @@
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
-        <v>5.1719679337988107E-2</v>
+        <v>0.15766518907279095</v>
       </c>
       <c r="D121">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,11 +2498,11 @@
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
-        <v>5.2154298492088844E-2</v>
+        <v>0.16064367257490975</v>
       </c>
       <c r="D122">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,11 +2515,11 @@
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
-        <v>5.2588917646189587E-2</v>
+        <v>0.16365943323428686</v>
       </c>
       <c r="D123">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,11 +2532,11 @@
       </c>
       <c r="C124">
         <f t="shared" si="3"/>
-        <v>5.302353680029033E-2</v>
+        <v>0.16671270287403939</v>
       </c>
       <c r="D124">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,11 +2549,11 @@
       </c>
       <c r="C125">
         <f t="shared" si="3"/>
-        <v>5.3458155954391066E-2</v>
+        <v>0.1698037133172848</v>
       </c>
       <c r="D125">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,11 +2566,11 @@
       </c>
       <c r="C126">
         <f t="shared" si="3"/>
-        <v>5.389277510849181E-2</v>
+        <v>0.17293269638714018</v>
       </c>
       <c r="D126">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="C127">
         <f t="shared" si="3"/>
-        <v>5.4327394262592546E-2</v>
+        <v>0.17609988390672299</v>
       </c>
       <c r="D127">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2600,11 +2600,11 @@
       </c>
       <c r="C128">
         <f t="shared" si="3"/>
-        <v>5.4762013416693289E-2</v>
+        <v>0.17930550769915041</v>
       </c>
       <c r="D128">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,11 +2617,11 @@
       </c>
       <c r="C129">
         <f t="shared" si="3"/>
-        <v>5.5196632570794033E-2</v>
+        <v>0.18254979958753972</v>
       </c>
       <c r="D129">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2633,12 +2633,12 @@
         <v>0.50196078431372548</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C193" si="6">IF(B130&lt;=0.8, B130/9.023,  POWER((B130+0.16)/1.16, 3))</f>
-        <v>5.5631251724894769E-2</v>
+        <f t="shared" ref="C130:C193" si="6">IF(B130&lt;=0.08, B130/9.023,  POWER((B130+0.16)/1.16, 3))</f>
+        <v>0.18583299139500817</v>
       </c>
       <c r="D130">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,11 +2651,11 @@
       </c>
       <c r="C131">
         <f t="shared" si="6"/>
-        <v>5.6065870878995505E-2</v>
+        <v>0.18915531494467308</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" si="7">_xlfn.CEILING.MATH( ((C131*$E$2)*($G$2-$F$2)/$E$2+$F$2) )</f>
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="C132">
         <f t="shared" si="6"/>
-        <v>5.6500490033096248E-2</v>
+        <v>0.19251700205965169</v>
       </c>
       <c r="D132">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,11 +2685,11 @@
       </c>
       <c r="C133">
         <f t="shared" si="6"/>
-        <v>5.6935109187196985E-2</v>
+        <v>0.19591828456306137</v>
       </c>
       <c r="D133">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,11 +2702,11 @@
       </c>
       <c r="C134">
         <f t="shared" si="6"/>
-        <v>5.7369728341297735E-2</v>
+        <v>0.19935939427801935</v>
       </c>
       <c r="D134">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,11 +2719,11 @@
       </c>
       <c r="C135">
         <f t="shared" si="6"/>
-        <v>5.7804347495398478E-2</v>
+        <v>0.20284056302764289</v>
       </c>
       <c r="D135">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2736,11 +2736,11 @@
       </c>
       <c r="C136">
         <f t="shared" si="6"/>
-        <v>5.8238966649499214E-2</v>
+        <v>0.20636202263504913</v>
       </c>
       <c r="D136">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,11 +2753,11 @@
       </c>
       <c r="C137">
         <f t="shared" si="6"/>
-        <v>5.8673585803599951E-2</v>
+        <v>0.20992400492335561</v>
       </c>
       <c r="D137">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,11 +2770,11 @@
       </c>
       <c r="C138">
         <f t="shared" si="6"/>
-        <v>5.9108204957700694E-2</v>
+        <v>0.21352674171567942</v>
       </c>
       <c r="D138">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,11 +2787,11 @@
       </c>
       <c r="C139">
         <f t="shared" si="6"/>
-        <v>5.954282411180143E-2</v>
+        <v>0.21717046483513797</v>
       </c>
       <c r="D139">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,11 +2804,11 @@
       </c>
       <c r="C140">
         <f t="shared" si="6"/>
-        <v>5.9977443265902167E-2</v>
+        <v>0.22085540610484836</v>
       </c>
       <c r="D140">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,11 +2821,11 @@
       </c>
       <c r="C141">
         <f t="shared" si="6"/>
-        <v>6.041206242000291E-2</v>
+        <v>0.2245817973479281</v>
       </c>
       <c r="D141">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2838,11 +2838,11 @@
       </c>
       <c r="C142">
         <f t="shared" si="6"/>
-        <v>6.084668157410366E-2</v>
+        <v>0.22834987038749432</v>
       </c>
       <c r="D142">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,11 +2855,11 @@
       </c>
       <c r="C143">
         <f t="shared" si="6"/>
-        <v>6.1281300728204396E-2</v>
+        <v>0.23215985704666434</v>
       </c>
       <c r="D143">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,11 +2872,11 @@
       </c>
       <c r="C144">
         <f t="shared" si="6"/>
-        <v>6.171591988230514E-2</v>
+        <v>0.23601198914855531</v>
       </c>
       <c r="D144">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2889,11 +2889,11 @@
       </c>
       <c r="C145">
         <f t="shared" si="6"/>
-        <v>6.2150539036405876E-2</v>
+        <v>0.23990649851628473</v>
       </c>
       <c r="D145">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,11 +2906,11 @@
       </c>
       <c r="C146">
         <f t="shared" si="6"/>
-        <v>6.2585158190506612E-2</v>
+        <v>0.24384361697296963</v>
       </c>
       <c r="D146">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="C147">
         <f t="shared" si="6"/>
-        <v>6.3019777344607356E-2</v>
+        <v>0.24782357634172758</v>
       </c>
       <c r="D147">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,11 +2940,11 @@
       </c>
       <c r="C148">
         <f t="shared" si="6"/>
-        <v>6.3454396498708099E-2</v>
+        <v>0.25184660844567558</v>
       </c>
       <c r="D148">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,11 +2957,11 @@
       </c>
       <c r="C149">
         <f t="shared" si="6"/>
-        <v>6.3889015652808828E-2</v>
+        <v>0.25591294510793111</v>
       </c>
       <c r="D149">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2974,11 +2974,11 @@
       </c>
       <c r="C150">
         <f t="shared" si="6"/>
-        <v>6.4323634806909585E-2</v>
+        <v>0.26002281815161138</v>
       </c>
       <c r="D150">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,11 +2991,11 @@
       </c>
       <c r="C151">
         <f t="shared" si="6"/>
-        <v>6.4758253961010315E-2</v>
+        <v>0.26417645939983364</v>
       </c>
       <c r="D151">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,11 +3008,11 @@
       </c>
       <c r="C152">
         <f t="shared" si="6"/>
-        <v>6.5192873115111058E-2</v>
+        <v>0.26837410067571504</v>
       </c>
       <c r="D152">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="C153">
         <f t="shared" si="6"/>
-        <v>6.5627492269211801E-2</v>
+        <v>0.27261597380237318</v>
       </c>
       <c r="D153">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,11 +3042,11 @@
       </c>
       <c r="C154">
         <f t="shared" si="6"/>
-        <v>6.6062111423312544E-2</v>
+        <v>0.27690231060292497</v>
       </c>
       <c r="D154">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,11 +3059,11 @@
       </c>
       <c r="C155">
         <f t="shared" si="6"/>
-        <v>6.6496730577413274E-2</v>
+        <v>0.28123334290048807</v>
       </c>
       <c r="D155">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,11 +3076,11 @@
       </c>
       <c r="C156">
         <f t="shared" si="6"/>
-        <v>6.6931349731514017E-2</v>
+        <v>0.28560930251817934</v>
       </c>
       <c r="D156">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,11 +3093,11 @@
       </c>
       <c r="C157">
         <f t="shared" si="6"/>
-        <v>6.736596888561476E-2</v>
+        <v>0.29003042127911643</v>
       </c>
       <c r="D157">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,11 +3110,11 @@
       </c>
       <c r="C158">
         <f t="shared" si="6"/>
-        <v>6.7800588039715504E-2</v>
+        <v>0.29449693100641655</v>
       </c>
       <c r="D158">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="C159">
         <f t="shared" si="6"/>
-        <v>6.8235207193816247E-2</v>
+        <v>0.29900906352319684</v>
       </c>
       <c r="D159">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3144,11 +3144,11 @@
       </c>
       <c r="C160">
         <f t="shared" si="6"/>
-        <v>6.866982634791699E-2</v>
+        <v>0.3035670506525745</v>
       </c>
       <c r="D160">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3161,11 +3161,11 @@
       </c>
       <c r="C161">
         <f t="shared" si="6"/>
-        <v>6.910444550201772E-2</v>
+        <v>0.30817112421766701</v>
       </c>
       <c r="D161">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3178,11 +3178,11 @@
       </c>
       <c r="C162">
         <f t="shared" si="6"/>
-        <v>6.9539064656118463E-2</v>
+        <v>0.31282151604159153</v>
       </c>
       <c r="D162">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3195,11 +3195,11 @@
       </c>
       <c r="C163">
         <f t="shared" si="6"/>
-        <v>6.9973683810219206E-2</v>
+        <v>0.31751845794746547</v>
       </c>
       <c r="D163">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,11 +3212,11 @@
       </c>
       <c r="C164">
         <f t="shared" si="6"/>
-        <v>7.0408302964319935E-2</v>
+        <v>0.32226218175840587</v>
       </c>
       <c r="D164">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,11 +3229,11 @@
       </c>
       <c r="C165">
         <f t="shared" si="6"/>
-        <v>7.0842922118420679E-2</v>
+        <v>0.32705291929753033</v>
       </c>
       <c r="D165">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="C166">
         <f t="shared" si="6"/>
-        <v>7.1277541272521436E-2</v>
+        <v>0.33189090238795599</v>
       </c>
       <c r="D166">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,11 +3263,11 @@
       </c>
       <c r="C167">
         <f t="shared" si="6"/>
-        <v>7.1712160426622165E-2</v>
+        <v>0.33677636285279999</v>
       </c>
       <c r="D167">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,11 +3280,11 @@
       </c>
       <c r="C168">
         <f t="shared" si="6"/>
-        <v>7.2146779580722908E-2</v>
+        <v>0.34170953251517966</v>
       </c>
       <c r="D168">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,11 +3297,11 @@
       </c>
       <c r="C169">
         <f t="shared" si="6"/>
-        <v>7.2581398734823652E-2</v>
+        <v>0.34669064319821241</v>
       </c>
       <c r="D169">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,11 +3314,11 @@
       </c>
       <c r="C170">
         <f t="shared" si="6"/>
-        <v>7.3016017888924381E-2</v>
+        <v>0.35171992672501534</v>
       </c>
       <c r="D170">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,11 +3331,11 @@
       </c>
       <c r="C171">
         <f t="shared" si="6"/>
-        <v>7.3450637043025124E-2</v>
+        <v>0.35679761491870593</v>
       </c>
       <c r="D171">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,11 +3348,11 @@
       </c>
       <c r="C172">
         <f t="shared" si="6"/>
-        <v>7.3885256197125868E-2</v>
+        <v>0.36192393960240121</v>
       </c>
       <c r="D172">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3365,11 +3365,11 @@
       </c>
       <c r="C173">
         <f t="shared" si="6"/>
-        <v>7.4319875351226597E-2</v>
+        <v>0.36709913259921878</v>
       </c>
       <c r="D173">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,11 +3382,11 @@
       </c>
       <c r="C174">
         <f t="shared" si="6"/>
-        <v>7.4754494505327354E-2</v>
+        <v>0.37232342573227573</v>
       </c>
       <c r="D174">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,11 +3399,11 @@
       </c>
       <c r="C175">
         <f t="shared" si="6"/>
-        <v>7.5189113659428097E-2</v>
+        <v>0.37759705082468931</v>
       </c>
       <c r="D175">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3416,11 +3416,11 @@
       </c>
       <c r="C176">
         <f t="shared" si="6"/>
-        <v>7.5623732813528827E-2</v>
+        <v>0.38292023969957667</v>
       </c>
       <c r="D176">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3433,11 +3433,11 @@
       </c>
       <c r="C177">
         <f t="shared" si="6"/>
-        <v>7.605835196762957E-2</v>
+        <v>0.38829322418005546</v>
       </c>
       <c r="D177">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3450,11 +3450,11 @@
       </c>
       <c r="C178">
         <f t="shared" si="6"/>
-        <v>7.6492971121730313E-2</v>
+        <v>0.39371623608924261</v>
       </c>
       <c r="D178">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="C179">
         <f t="shared" si="6"/>
-        <v>7.6927590275831043E-2</v>
+        <v>0.39918950725025565</v>
       </c>
       <c r="D179">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,11 +3484,11 @@
       </c>
       <c r="C180">
         <f t="shared" si="6"/>
-        <v>7.7362209429931786E-2</v>
+        <v>0.4047132694862115</v>
       </c>
       <c r="D180">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3501,11 +3501,11 @@
       </c>
       <c r="C181">
         <f t="shared" si="6"/>
-        <v>7.7796828584032529E-2</v>
+        <v>0.41028775462022793</v>
       </c>
       <c r="D181">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3518,11 +3518,11 @@
       </c>
       <c r="C182">
         <f t="shared" si="6"/>
-        <v>7.8231447738133272E-2</v>
+        <v>0.41591319447542197</v>
       </c>
       <c r="D182">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="C183">
         <f t="shared" si="6"/>
-        <v>7.8666066892234016E-2</v>
+        <v>0.42158982087491093</v>
       </c>
       <c r="D183">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,11 +3552,11 @@
       </c>
       <c r="C184">
         <f t="shared" si="6"/>
-        <v>7.9100686046334759E-2</v>
+        <v>0.42731786564181173</v>
       </c>
       <c r="D184">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,11 +3569,11 @@
       </c>
       <c r="C185">
         <f t="shared" si="6"/>
-        <v>7.9535305200435488E-2</v>
+        <v>0.43309756059924231</v>
       </c>
       <c r="D185">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,11 +3586,11 @@
       </c>
       <c r="C186">
         <f t="shared" si="6"/>
-        <v>7.9969924354536231E-2</v>
+        <v>0.43892913757031937</v>
       </c>
       <c r="D186">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3603,11 +3603,11 @@
       </c>
       <c r="C187">
         <f t="shared" si="6"/>
-        <v>8.0404543508636975E-2</v>
+        <v>0.44481282837816061</v>
       </c>
       <c r="D187">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3620,11 +3620,11 @@
       </c>
       <c r="C188">
         <f t="shared" si="6"/>
-        <v>8.0839162662737704E-2</v>
+        <v>0.45074886484588284</v>
       </c>
       <c r="D188">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,11 +3637,11 @@
       </c>
       <c r="C189">
         <f t="shared" si="6"/>
-        <v>8.1273781816838447E-2</v>
+        <v>0.45673747879660387</v>
       </c>
       <c r="D189">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,11 +3654,11 @@
       </c>
       <c r="C190">
         <f t="shared" si="6"/>
-        <v>8.1708400970939205E-2</v>
+        <v>0.4627789020534408</v>
       </c>
       <c r="D190">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,11 +3671,11 @@
       </c>
       <c r="C191">
         <f t="shared" si="6"/>
-        <v>8.2143020125039934E-2</v>
+        <v>0.46887336643951077</v>
       </c>
       <c r="D191">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="C192">
         <f t="shared" si="6"/>
-        <v>8.2577639279140677E-2</v>
+        <v>0.47502110377793094</v>
       </c>
       <c r="D192">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,11 +3705,11 @@
       </c>
       <c r="C193">
         <f t="shared" si="6"/>
-        <v>8.301225843324142E-2</v>
+        <v>0.48122234589181895</v>
       </c>
       <c r="D193">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3721,12 +3721,12 @@
         <v>0.75294117647058822</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:C257" si="9">IF(B194&lt;=0.8, B194/9.023,  POWER((B194+0.16)/1.16, 3))</f>
-        <v>8.344687758734215E-2</v>
+        <f t="shared" ref="C194:C257" si="9">IF(B194&lt;=0.08, B194/9.023,  POWER((B194+0.16)/1.16, 3))</f>
+        <v>0.48747732460429172</v>
       </c>
       <c r="D194">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,11 +3739,11 @@
       </c>
       <c r="C195">
         <f t="shared" si="9"/>
-        <v>8.3881496741442893E-2</v>
+        <v>0.49378627173846695</v>
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D257" si="10">_xlfn.CEILING.MATH( ((C195*$E$2)*($G$2-$F$2)/$E$2+$F$2) )</f>
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="C196">
         <f t="shared" si="9"/>
-        <v>8.4316115895543636E-2</v>
+        <v>0.50014941911746136</v>
       </c>
       <c r="D196">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,11 +3773,11 @@
       </c>
       <c r="C197">
         <f t="shared" si="9"/>
-        <v>8.4750735049644366E-2</v>
+        <v>0.5065669985643928</v>
       </c>
       <c r="D197">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="C198">
         <f t="shared" si="9"/>
-        <v>8.5185354203745123E-2</v>
+        <v>0.51303924190237826</v>
       </c>
       <c r="D198">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,11 +3807,11 @@
       </c>
       <c r="C199">
         <f t="shared" si="9"/>
-        <v>8.5619973357845866E-2</v>
+        <v>0.51956638095453511</v>
       </c>
       <c r="D199">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,11 +3824,11 @@
       </c>
       <c r="C200">
         <f t="shared" si="9"/>
-        <v>8.6054592511946595E-2</v>
+        <v>0.52614864754398039</v>
       </c>
       <c r="D200">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>135</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,11 +3841,11 @@
       </c>
       <c r="C201">
         <f t="shared" si="9"/>
-        <v>8.6489211666047339E-2</v>
+        <v>0.53278627349383156</v>
       </c>
       <c r="D201">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3858,11 +3858,11 @@
       </c>
       <c r="C202">
         <f t="shared" si="9"/>
-        <v>8.6923830820148082E-2</v>
+        <v>0.53947949062720579</v>
       </c>
       <c r="D202">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="C203">
         <f t="shared" si="9"/>
-        <v>8.7358449974248811E-2</v>
+        <v>0.54622853076722078</v>
       </c>
       <c r="D203">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,11 +3892,11 @@
       </c>
       <c r="C204">
         <f t="shared" si="9"/>
-        <v>8.7793069128349555E-2</v>
+        <v>0.55303362573699311</v>
       </c>
       <c r="D204">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3909,11 +3909,11 @@
       </c>
       <c r="C205">
         <f t="shared" si="9"/>
-        <v>8.8227688282450298E-2</v>
+        <v>0.55989500735964071</v>
       </c>
       <c r="D205">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3926,11 +3926,11 @@
       </c>
       <c r="C206">
         <f t="shared" si="9"/>
-        <v>8.8662307436551041E-2</v>
+        <v>0.56681290745828061</v>
       </c>
       <c r="D206">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
